--- a/media/request/EB請求書.xlsx
+++ b/media/request/EB請求書.xlsx
@@ -11,6 +11,12 @@
     <sheet name="請求書印刷(別) (2)" sheetId="6" state="hidden" r:id="rId2"/>
     <sheet name="請求書印刷（一括） (2)" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="EXPENSES_END">'請求書印刷(別)'!$P$50</definedName>
+    <definedName name="EXPENSES_START">'請求書印刷(別)'!$C$50</definedName>
+    <definedName name="ITERATOR_END">'請求書印刷(別)'!$P$43</definedName>
+    <definedName name="ITERATOR_START">'請求書印刷(別)'!$B$25</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1621,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
